--- a/doc/IFT3100H24_TP2_Grille.xlsx
+++ b/doc/IFT3100H24_TP2_Grille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arroy\Documents\of_v0.12.0_vs_release\apps\IFT3100H24-PLAN_B\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C6A17-B39E-4284-BB87-55F050936C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11974FC9-A97D-4D42-B6B6-E7F20CE7846E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1095" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1717,10 +1717,10 @@
   <dimension ref="A1:IV59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1945,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="F33" s="24">
         <f>SUM(E7:E31)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33" s="24">
         <v>40</v>
       </c>
       <c r="H33" s="18">
         <f>MIN(F33,G33)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2346,7 +2346,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="24">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="H36" s="18">
         <f>MIN(E36,G36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -2442,11 +2442,11 @@
       </c>
       <c r="H42" s="32">
         <f>H33+H36+H39</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" s="33">
         <f>H42/G42</f>
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="J42" s="34"/>
     </row>
@@ -2654,11 +2654,11 @@
       </c>
       <c r="H58" s="37">
         <f>G58*I58</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I58" s="39">
         <f>MIN(I42+F50+F56,1)</f>
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="J58" s="34"/>
     </row>
